--- a/data5.xlsx
+++ b/data5.xlsx
@@ -272,11 +272,11 @@
   </sheetPr>
   <dimension ref="A1:JC101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="Z30" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AG53" activeCellId="0" sqref="AG53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N23" activeCellId="0" sqref="N23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.94140625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.95703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1071,25 +1071,25 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>-0.00304099343931524</v>
+        <v>0.37324087856714</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>0.136904787483126</v>
+        <v>0.0995727425322591</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>-0.000572605400439852</v>
+        <v>0.18068071721929</v>
       </c>
       <c r="E2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0.30097186046438</v>
+        <v>0.243345538974086</v>
       </c>
       <c r="G2" s="0" t="n">
-        <v>-0.000749480811568555</v>
+        <v>0.0457049982906514</v>
       </c>
       <c r="H2" s="0" t="n">
         <v>0</v>
@@ -1101,31 +1101,31 @@
         <v>0</v>
       </c>
       <c r="K2" s="0" t="n">
-        <v>-0.00152049613378236</v>
+        <v>0.185539079839234</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>0.999998844045085</v>
+        <v>0.982636886063418</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>0.0378771720426805</v>
+        <v>0.372842338479491</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>0.174078832677962</v>
+        <v>0.105018284023838</v>
       </c>
       <c r="O2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>-0.0442452646216408</v>
+        <v>0.143078916999153</v>
       </c>
       <c r="Q2" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R2" s="0" t="n">
-        <v>0.332617307887858</v>
+        <v>0.275843832748292</v>
       </c>
       <c r="S2" s="0" t="n">
-        <v>0.0129317536305397</v>
+        <v>0.0483611245604725</v>
       </c>
       <c r="T2" s="0" t="n">
         <v>0</v>
@@ -1137,10 +1137,10 @@
         <v>0</v>
       </c>
       <c r="W2" s="0" t="n">
-        <v>0.0189374539244071</v>
+        <v>0.185343266061437</v>
       </c>
       <c r="X2" s="0" t="n">
-        <v>0.999820670339867</v>
+        <v>0.982673838934201</v>
       </c>
       <c r="Y2" s="0" t="n">
         <v>0</v>
@@ -1862,25 +1862,25 @@
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
-        <v>-0.00415747035597381</v>
+        <v>0.743727465442048</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>0.136917159176378</v>
+        <v>0.100007513771354</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D3" s="0" t="n">
-        <v>-0.000760658088483606</v>
+        <v>0.151049965252108</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0.574785513565729</v>
+        <v>0.411135730844093</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>-0.00173299272267386</v>
+        <v>0.15280854372186</v>
       </c>
       <c r="H3" s="0" t="n">
         <v>0</v>
@@ -1892,31 +1892,31 @@
         <v>0</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>-0.00207873368090296</v>
+        <v>0.363352411904386</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>0.999997839430808</v>
+        <v>0.931651772264329</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>0.0464548943390572</v>
+        <v>0.761239172762571</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.140289799813027</v>
+        <v>0.0944701087278518</v>
       </c>
       <c r="O3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>-0.144390118879811</v>
+        <v>0.0445565829757881</v>
       </c>
       <c r="Q3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>0.631245603333075</v>
+        <v>0.45803616259156</v>
       </c>
       <c r="S3" s="0" t="n">
-        <v>0.0221709129360336</v>
+        <v>0.165805801985683</v>
       </c>
       <c r="T3" s="0" t="n">
         <v>0</v>
@@ -1928,10 +1928,10 @@
         <v>0</v>
       </c>
       <c r="W3" s="0" t="n">
-        <v>0.0232253586358779</v>
+        <v>0.37149578614133</v>
       </c>
       <c r="X3" s="0" t="n">
-        <v>0.999730254976929</v>
+        <v>0.928434640068559</v>
       </c>
       <c r="Y3" s="0" t="n">
         <v>0</v>
@@ -2653,25 +2653,25 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>-0.00517644175377974</v>
+        <v>1.08389846764227</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>0.136898042736826</v>
+        <v>0.100634305931847</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>-0.0007072863019266</v>
+        <v>0.145121616581448</v>
       </c>
       <c r="E4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>0.845860444460151</v>
+        <v>0.526923887946352</v>
       </c>
       <c r="G4" s="0" t="n">
-        <v>-0.00298313200031217</v>
+        <v>0.312005322733419</v>
       </c>
       <c r="H4" s="0" t="n">
         <v>0</v>
@@ -2683,31 +2683,31 @@
         <v>0</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>-0.00258821798719084</v>
+        <v>0.515806888632039</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0.999996650558216</v>
+        <v>0.856704881297951</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0.0342910761564266</v>
+        <v>1.10920620420142</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.15213307772387</v>
+        <v>0.110448746581374</v>
       </c>
       <c r="O4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P4" s="0" t="n">
-        <v>-0.208402036927908</v>
+        <v>0.270363056577635</v>
       </c>
       <c r="Q4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>0.927795618943141</v>
+        <v>0.585331217728728</v>
       </c>
       <c r="S4" s="0" t="n">
-        <v>0.0348618017296162</v>
+        <v>0.350063620408378</v>
       </c>
       <c r="T4" s="0" t="n">
         <v>0</v>
@@ -2719,10 +2719,10 @@
         <v>0</v>
       </c>
       <c r="W4" s="0" t="n">
-        <v>0.0171446980464198</v>
+        <v>0.526605935008662</v>
       </c>
       <c r="X4" s="0" t="n">
-        <v>0.999853018862721</v>
+        <v>0.850109516011704</v>
       </c>
       <c r="Y4" s="0" t="n">
         <v>0</v>
@@ -3444,25 +3444,25 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
-        <v>-0.00620212677851173</v>
+        <v>1.42680259127428</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>0.136808280125121</v>
+        <v>0.0988136892744697</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D5" s="0" t="n">
-        <v>-0.000177514649568332</v>
+        <v>0.161950829269677</v>
       </c>
       <c r="E5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F5" s="0" t="n">
-        <v>1.11965990888182</v>
+        <v>0.586773537059862</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>-0.0045505997147843</v>
+        <v>0.500140787343447</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>0</v>
@@ -3474,31 +3474,31 @@
         <v>0</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>-0.00310105841898025</v>
+        <v>0.654409408520716</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>0.999995191706781</v>
+        <v>0.756140414235059</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0.0219224312274413</v>
+        <v>1.48704220075203</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.146072391660721</v>
+        <v>0.081982316442091</v>
       </c>
       <c r="O5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="0" t="n">
-        <v>0.174002767529489</v>
+        <v>-0.190347183935317</v>
       </c>
       <c r="Q5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R5" s="0" t="n">
-        <v>1.22516919395984</v>
+        <v>0.638969001274352</v>
       </c>
       <c r="S5" s="0" t="n">
-        <v>0.0444888836941413</v>
+        <v>0.557974870570766</v>
       </c>
       <c r="T5" s="0" t="n">
         <v>0</v>
@@ -3510,10 +3510,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="0" t="n">
-        <v>0.0109609961198978</v>
+        <v>0.676883948218682</v>
       </c>
       <c r="X5" s="0" t="n">
-        <v>0.999939926477616</v>
+        <v>0.736089750399969</v>
       </c>
       <c r="Y5" s="0" t="n">
         <v>0</v>
@@ -4235,25 +4235,25 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>-0.00722385927149572</v>
+        <v>1.744994930016</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>0.13690645934872</v>
+        <v>0.100001310284664</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>-0.000620661395345142</v>
+        <v>0.152735057802011</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>1.39074446946802</v>
+        <v>0.581528071306285</v>
       </c>
       <c r="G6" s="0" t="n">
-        <v>-0.00636515995378766</v>
+        <v>0.699737272302422</v>
       </c>
       <c r="H6" s="0" t="n">
         <v>0</v>
@@ -4265,31 +4265,31 @@
         <v>0</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>-0.00361192178219249</v>
+        <v>0.76593698340411</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>0.999993476989245</v>
+        <v>0.642915653452156</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>0.0470508605289996</v>
+        <v>1.80875961232623</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.172276687580453</v>
+        <v>0.103058450030623</v>
       </c>
       <c r="O6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>0.0357229974913914</v>
+        <v>0.310705934020814</v>
       </c>
       <c r="Q6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>1.52430181416022</v>
+        <v>0.61947741423286</v>
       </c>
       <c r="S6" s="0" t="n">
-        <v>0.0561534120523919</v>
+        <v>0.756829158044783</v>
       </c>
       <c r="T6" s="0" t="n">
         <v>0</v>
@@ -4301,10 +4301,10 @@
         <v>0</v>
       </c>
       <c r="W6" s="0" t="n">
-        <v>0.0235232603158483</v>
+        <v>0.78604191894199</v>
       </c>
       <c r="X6" s="0" t="n">
-        <v>0.999723289827797</v>
+        <v>0.618173197142997</v>
       </c>
       <c r="Y6" s="0" t="n">
         <v>0</v>
@@ -5026,25 +5026,25 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
-        <v>0.193241147932892</v>
+        <v>2.04023225223454</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>0.000400160439111873</v>
+        <v>0.0999259375885601</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D7" s="0" t="n">
-        <v>0.563205776178276</v>
+        <v>0.100748811221118</v>
       </c>
       <c r="E7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F7" s="0" t="n">
-        <v>1.58027806101328</v>
+        <v>0.514760404739547</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>-0.00766465650294174</v>
+        <v>0.885829406461384</v>
       </c>
       <c r="H7" s="0" t="n">
         <v>0</v>
@@ -5056,31 +5056,31 @@
         <v>0</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>0.0964703099932821</v>
+        <v>0.852168792659601</v>
       </c>
       <c r="L7" s="0" t="n">
-        <v>0.995335862555851</v>
+        <v>0.523266995726921</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>0.23210937139027</v>
+        <v>2.13550079158954</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.00262106120347786</v>
+        <v>0.100302588887113</v>
       </c>
       <c r="O7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>0.273983949370455</v>
+        <v>0.285731702627105</v>
       </c>
       <c r="Q7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>1.7336802450044</v>
+        <v>0.529360141011311</v>
       </c>
       <c r="S7" s="0" t="n">
-        <v>0.0686716965264095</v>
+        <v>0.956723026261991</v>
       </c>
       <c r="T7" s="0" t="n">
         <v>0</v>
@@ -5092,10 +5092,10 @@
         <v>0</v>
       </c>
       <c r="W7" s="0" t="n">
-        <v>0.115794343648144</v>
+        <v>0.876118196069302</v>
       </c>
       <c r="X7" s="0" t="n">
-        <v>0.993273210138628</v>
+        <v>0.482096366420939</v>
       </c>
       <c r="Y7" s="0" t="n">
         <v>0</v>
@@ -5817,25 +5817,25 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
-        <v>2.31987626505376</v>
+        <v>2.38801642592643</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>0.150974179304438</v>
+        <v>0.100213325366038</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>0.504059584122552</v>
+        <v>0.119002587671905</v>
       </c>
       <c r="E8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1.54302347570643</v>
+        <v>0.393364321196844</v>
       </c>
       <c r="G8" s="0" t="n">
-        <v>0.0744692827683362</v>
+        <v>1.04297066506976</v>
       </c>
       <c r="H8" s="0" t="n">
         <v>0</v>
@@ -5847,31 +5847,31 @@
         <v>0</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>0.916778400889611</v>
+        <v>0.929851197706524</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0.399396248933672</v>
+        <v>0.367935796197845</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>2.45451213750419</v>
+        <v>2.51446315875027</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.176915761548945</v>
+        <v>0.0831486461075487</v>
       </c>
       <c r="O8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="0" t="n">
-        <v>0.539148983412578</v>
+        <v>0.088164136047827</v>
       </c>
       <c r="Q8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R8" s="0" t="n">
-        <v>1.68370102485709</v>
+        <v>0.38170839333976</v>
       </c>
       <c r="S8" s="0" t="n">
-        <v>0.157525414244777</v>
+        <v>1.11138336130771</v>
       </c>
       <c r="T8" s="0" t="n">
         <v>0</v>
@@ -5883,10 +5883,10 @@
         <v>0</v>
       </c>
       <c r="W8" s="0" t="n">
-        <v>0.941568129667224</v>
+        <v>0.951240064354801</v>
       </c>
       <c r="X8" s="0" t="n">
-        <v>0.336822590090044</v>
+        <v>0.308451519636836</v>
       </c>
       <c r="Y8" s="0" t="n">
         <v>0</v>
@@ -6608,25 +6608,25 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>2.62752171762529</v>
+        <v>2.73983949874044</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>0.151512458435909</v>
+        <v>0.0997567508306133</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>0.0864421501711623</v>
+        <v>0.0543024504853917</v>
       </c>
       <c r="E9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F9" s="0" t="n">
-        <v>1.30552795043529</v>
+        <v>0.227761294818597</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0.256723379008878</v>
+        <v>1.14898610570243</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>0</v>
@@ -6638,31 +6638,31 @@
         <v>0</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0.967147854013491</v>
+        <v>0.979892052277527</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>0.254214532387702</v>
+        <v>0.1995283585943</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>2.76792584178758</v>
+        <v>2.85200188011881</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.148742912303138</v>
+        <v>0.108491239420806</v>
       </c>
       <c r="O9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>-0.0866216530673855</v>
+        <v>-0.112017272309714</v>
       </c>
       <c r="Q9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>1.3913920504486</v>
+        <v>0.178150031040456</v>
       </c>
       <c r="S9" s="0" t="n">
-        <v>0.327339131008967</v>
+        <v>1.21076286429088</v>
       </c>
       <c r="T9" s="0" t="n">
         <v>0</v>
@@ -6674,10 +6674,10 @@
         <v>0</v>
       </c>
       <c r="W9" s="0" t="n">
-        <v>0.982597350149823</v>
+        <v>0.98953545022631</v>
       </c>
       <c r="X9" s="0" t="n">
-        <v>0.185748344483999</v>
+        <v>0.144289960653587</v>
       </c>
       <c r="Y9" s="0" t="n">
         <v>0</v>
@@ -7399,25 +7399,25 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>2.88516659270676</v>
+        <v>3.05808400960004</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>0.15137421058373</v>
+        <v>0.100424719662596</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0.13530556714995</v>
+        <v>0.153258236373215</v>
       </c>
       <c r="E10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>1.02574673086971</v>
+        <v>0.0365655157693209</v>
       </c>
       <c r="G10" s="0" t="n">
-        <v>0.370992800836547</v>
+        <v>1.19685171695264</v>
       </c>
       <c r="H10" s="0" t="n">
         <v>0</v>
@@ -7429,31 +7429,31 @@
         <v>0</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0.991791962700956</v>
+        <v>0.999128414936896</v>
       </c>
       <c r="L10" s="0" t="n">
-        <v>0.127862045665571</v>
+        <v>0.041742190475405</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>3.00488273120779</v>
+        <v>-3.10752779475016</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.170981559775817</v>
+        <v>0.105074277537044</v>
       </c>
       <c r="O10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>0.324890668914301</v>
+        <v>0.35761842337458</v>
       </c>
       <c r="Q10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R10" s="0" t="n">
-        <v>1.07836162025634</v>
+        <v>-0.0384907019288995</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0.406057027227899</v>
+        <v>1.24068709472906</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>0</v>
@@ -7465,10 +7465,10 @@
         <v>0</v>
       </c>
       <c r="W10" s="0" t="n">
-        <v>0.997664709137314</v>
+        <v>0.999854951680667</v>
       </c>
       <c r="X10" s="0" t="n">
-        <v>0.0683017433303077</v>
+        <v>-0.0170316059034352</v>
       </c>
       <c r="Y10" s="0" t="n">
         <v>0</v>
@@ -8190,25 +8190,25 @@
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
-        <v>-3.13190461755271</v>
+        <v>-2.84341239252337</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>0.15152073287905</v>
+        <v>0.0998218800079473</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D11" s="0" t="n">
-        <v>0.125795887365951</v>
+        <v>0.116677157506858</v>
       </c>
       <c r="E11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F11" s="0" t="n">
-        <v>0.728938858452116</v>
+        <v>-0.161456060268836</v>
       </c>
       <c r="G11" s="0" t="n">
-        <v>0.408697688801304</v>
+        <v>1.17735448060661</v>
       </c>
       <c r="H11" s="0" t="n">
         <v>0</v>
@@ -8220,31 +8220,31 @@
         <v>0</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>0.999988267767659</v>
+        <v>0.988906637828</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>-0.00484399907481312</v>
+        <v>-0.148538418127166</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>-2.96704259242819</v>
+        <v>-2.65270442753881</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.15617085358811</v>
+        <v>0.118834972549302</v>
       </c>
       <c r="O11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>0.297375899010198</v>
+        <v>0.140501213547537</v>
       </c>
       <c r="Q11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>0.748693570690011</v>
+        <v>-0.236065927914657</v>
       </c>
       <c r="S11" s="0" t="n">
-        <v>0.401212278149735</v>
+        <v>1.18822538210464</v>
       </c>
       <c r="T11" s="0" t="n">
         <v>0</v>
@@ -8256,10 +8256,10 @@
         <v>0</v>
       </c>
       <c r="W11" s="0" t="n">
-        <v>0.996193951306425</v>
+        <v>0.970272008976003</v>
       </c>
       <c r="X11" s="0" t="n">
-        <v>-0.0871642781217877</v>
+        <v>-0.242017000637704</v>
       </c>
       <c r="Y11" s="0" t="n">
         <v>0</v>
@@ -8981,25 +8981,25 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>-2.83573658244175</v>
+        <v>-2.54038827991306</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>0.152028493793551</v>
+        <v>0.0995391896611856</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0.156798509296296</v>
+        <v>0.0811100019730731</v>
       </c>
       <c r="E12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F12" s="0" t="n">
-        <v>0.430368161051012</v>
+        <v>-0.340100786585913</v>
       </c>
       <c r="G12" s="0" t="n">
-        <v>0.363034915919778</v>
+        <v>1.09429239011016</v>
       </c>
       <c r="H12" s="0" t="n">
         <v>0</v>
@@ -9011,31 +9011,31 @@
         <v>0</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>0.988329279835117</v>
+        <v>0.955158357541092</v>
       </c>
       <c r="L12" s="0" t="n">
-        <v>-0.152332644632063</v>
+        <v>-0.296095444104438</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>-2.60611459836613</v>
+        <v>-2.3720154333723</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.190120337887886</v>
+        <v>0.0979747302106886</v>
       </c>
       <c r="O12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>0.0397870020447889</v>
+        <v>0.357446918378845</v>
       </c>
       <c r="Q12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R12" s="0" t="n">
-        <v>0.451482638171231</v>
+        <v>-0.422533004415498</v>
       </c>
       <c r="S12" s="0" t="n">
-        <v>0.296064146101499</v>
+        <v>1.05823720332411</v>
       </c>
       <c r="T12" s="0" t="n">
         <v>0</v>
@@ -9047,10 +9047,10 @@
         <v>0</v>
       </c>
       <c r="W12" s="0" t="n">
-        <v>0.964371504869981</v>
+        <v>0.926877801370357</v>
       </c>
       <c r="X12" s="0" t="n">
-        <v>-0.264551697395438</v>
+        <v>-0.375363212538007</v>
       </c>
       <c r="Y12" s="0" t="n">
         <v>0</v>
@@ -9772,25 +9772,25 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>-2.59040814427207</v>
+        <v>-2.21387802072082</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>0.15146680544</v>
+        <v>0.100039485383251</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>0.210256536017121</v>
+        <v>0.162785861449202</v>
       </c>
       <c r="E13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>0.154709723484648</v>
+        <v>-0.484247160785408</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0.239322890779753</v>
+        <v>0.959634357978627</v>
       </c>
       <c r="H13" s="0" t="n">
         <v>0</v>
@@ -9802,31 +9802,31 @@
         <v>0</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0.962264203906316</v>
+        <v>0.89433338731798</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>-0.272116890105232</v>
+        <v>-0.447401153695818</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>-2.32802894823527</v>
+        <v>-2.04715824938097</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.169250269948332</v>
+        <v>0.124922887255737</v>
       </c>
       <c r="O13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P13" s="0" t="n">
-        <v>0.415974078627576</v>
+        <v>0.410683421319764</v>
       </c>
       <c r="Q13" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R13" s="0" t="n">
-        <v>0.185102857499771</v>
+        <v>-0.555365629017672</v>
       </c>
       <c r="S13" s="0" t="n">
-        <v>0.0831494281056517</v>
+        <v>0.88053650520491</v>
       </c>
       <c r="T13" s="0" t="n">
         <v>0</v>
@@ -9838,10 +9838,10 @@
         <v>0</v>
       </c>
       <c r="W13" s="0" t="n">
-        <v>0.918398855080042</v>
+        <v>-0.85397575214539</v>
       </c>
       <c r="X13" s="0" t="n">
-        <v>-0.395655839066819</v>
+        <v>0.520312804712431</v>
       </c>
       <c r="Y13" s="0" t="n">
         <v>0</v>
@@ -10563,25 +10563,25 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>-2.33206834651066</v>
+        <v>-1.80230649904988</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>0.151923435581693</v>
+        <v>0.100199599100114</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>0.166463184401752</v>
+        <v>0.240093687531548</v>
       </c>
       <c r="E14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F14" s="0" t="n">
-        <v>-0.0782945060012002</v>
+        <v>-0.570847046690172</v>
       </c>
       <c r="G14" s="0" t="n">
-        <v>0.0513069749535168</v>
+        <v>0.780810156871716</v>
       </c>
       <c r="H14" s="0" t="n">
         <v>0</v>
@@ -10593,31 +10593,31 @@
         <v>0</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>0.919196087135147</v>
+        <v>-0.784043259962931</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>-0.393800143975895</v>
+        <v>0.620706183718755</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>-2.07577192640167</v>
+        <v>-1.60719868756942</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.100987841820675</v>
+        <v>0.126706934890661</v>
       </c>
       <c r="O14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>0.0570624441998384</v>
+        <v>-0.00431520907247474</v>
       </c>
       <c r="Q14" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>-0.0102662961637949</v>
+        <v>-0.611558325256888</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>-0.185935120630477</v>
+        <v>0.665568090912853</v>
       </c>
       <c r="T14" s="0" t="n">
         <v>0</v>
@@ -10629,10 +10629,10 @@
         <v>0</v>
       </c>
       <c r="W14" s="0" t="n">
-        <v>-0.861332132681295</v>
+        <v>-0.719859125681008</v>
       </c>
       <c r="X14" s="0" t="n">
-        <v>0.508042278959824</v>
+        <v>0.694120190726199</v>
       </c>
       <c r="Y14" s="0" t="n">
         <v>0</v>
@@ -11354,25 +11354,25 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>-2.04792969219391</v>
+        <v>-1.51853293231266</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>0.151381505324749</v>
+        <v>0.100235374841601</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>0.0998931336892804</v>
+        <v>0.143033238784183</v>
       </c>
       <c r="E15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-0.252243251185172</v>
+        <v>-0.59162382814903</v>
       </c>
       <c r="G15" s="0" t="n">
-        <v>-0.196106039009008</v>
+        <v>0.584596191153541</v>
       </c>
       <c r="H15" s="0" t="n">
         <v>0</v>
@@ -11384,31 +11384,31 @@
         <v>0</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>-0.854176384399567</v>
+        <v>-0.688389568068616</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>0.519983369286061</v>
+        <v>0.725341162884269</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>-1.75895975703791</v>
+        <v>-1.31895037590501</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.144225576297589</v>
+        <v>0.109503109181211</v>
       </c>
       <c r="O15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>0.15801267242168</v>
+        <v>0.434313293980828</v>
       </c>
       <c r="Q15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>-0.116344935215149</v>
+        <v>-0.593114386672225</v>
       </c>
       <c r="S15" s="0" t="n">
-        <v>-0.499158476876056</v>
+        <v>0.452755407917131</v>
       </c>
       <c r="T15" s="0" t="n">
         <v>0</v>
@@ -11420,10 +11420,10 @@
         <v>0</v>
       </c>
       <c r="W15" s="0" t="n">
-        <v>-0.770407378664554</v>
+        <v>-0.612702170117271</v>
       </c>
       <c r="X15" s="0" t="n">
-        <v>0.637551935844611</v>
+        <v>0.79031389380017</v>
       </c>
       <c r="Y15" s="0" t="n">
         <v>0</v>
@@ -12145,25 +12145,25 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
-        <v>-1.78132944551712</v>
+        <v>-1.19370247698328</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>0.151290189143339</v>
+        <v>0.0995034253520722</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D16" s="0" t="n">
-        <v>0.0617080085858997</v>
+        <v>0.182751208844409</v>
       </c>
       <c r="E16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>-0.349729907244028</v>
+        <v>-0.550915350681601</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>-0.478847323261661</v>
+        <v>0.389296743789672</v>
       </c>
       <c r="H16" s="0" t="n">
         <v>0</v>
@@ -12175,31 +12175,31 @@
         <v>0</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>-0.777489960317552</v>
+        <v>-0.562040893545908</v>
       </c>
       <c r="L16" s="0" t="n">
-        <v>0.628895350281278</v>
+        <v>0.827109444984228</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>-1.47350032980896</v>
+        <v>-0.967436370007883</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.159968965489617</v>
+        <v>0.114345056055935</v>
       </c>
       <c r="O16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>-0.121712461153019</v>
+        <v>-0.0500902795613855</v>
       </c>
       <c r="Q16" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R16" s="0" t="n">
-        <v>-0.128506541316626</v>
+        <v>-0.504062424856352</v>
       </c>
       <c r="S16" s="0" t="n">
-        <v>-0.83856198765331</v>
+        <v>0.255212811803602</v>
       </c>
       <c r="T16" s="0" t="n">
         <v>0</v>
@@ -12211,10 +12211,10 @@
         <v>0</v>
       </c>
       <c r="W16" s="0" t="n">
-        <v>-0.67188445409491</v>
+        <v>-0.465073987141105</v>
       </c>
       <c r="X16" s="0" t="n">
-        <v>0.740655979754154</v>
+        <v>0.885271815028963</v>
       </c>
       <c r="Y16" s="0" t="n">
         <v>0</v>
@@ -12936,25 +12936,25 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
-        <v>-1.51291983696878</v>
+        <v>-0.851671523596773</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>0.150607888164336</v>
+        <v>0.100027503341942</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.134738288667552</v>
+        <v>0.172623606034794</v>
       </c>
       <c r="E17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>-0.370826706802821</v>
+        <v>-0.447082574210187</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>-0.78021240910218</v>
+        <v>0.221229211299117</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0</v>
@@ -12966,31 +12966,31 @@
         <v>0</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>-0.686351155068343</v>
+        <v>-0.41308204902207</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0.727270301838561</v>
+        <v>0.910693812856839</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>-1.14827852906573</v>
+        <v>-0.599745981105017</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.161489383506665</v>
+        <v>0.113160302602173</v>
       </c>
       <c r="O17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>0.125025105509255</v>
+        <v>0.176513154958299</v>
       </c>
       <c r="Q17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>-0.044682836154408</v>
+        <v>-0.350071075902525</v>
       </c>
       <c r="S17" s="0" t="n">
-        <v>-1.15305685924023</v>
+        <v>0.103474654638999</v>
       </c>
       <c r="T17" s="0" t="n">
         <v>0</v>
@@ -13002,10 +13002,10 @@
         <v>0</v>
       </c>
       <c r="W17" s="0" t="n">
-        <v>-0.543112266740177</v>
+        <v>-0.295398867518436</v>
       </c>
       <c r="X17" s="0" t="n">
-        <v>0.839660089391145</v>
+        <v>0.955374015278218</v>
       </c>
       <c r="Y17" s="0" t="n">
         <v>0</v>
@@ -13727,25 +13727,25 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>-1.23351099636237</v>
+        <v>-0.540888783189767</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.151431587720476</v>
+        <v>0.0994699895281782</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.178568089917175</v>
+        <v>0.0994507149076035</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>-0.312142261878481</v>
+        <v>-0.293883374214964</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-1.07664336592991</v>
+        <v>0.0934385354572454</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>0</v>
@@ -13757,31 +13757,31 @@
         <v>0</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>-0.578391476821787</v>
+        <v>-0.267159702022892</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0.815759339229354</v>
+        <v>0.963652267996625</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>-0.856240169469866</v>
+        <v>-0.275044412654468</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.143322098039272</v>
+        <v>0.124461506803496</v>
       </c>
       <c r="O18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>-0.108295332246766</v>
+        <v>0.732065393259293</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>0.128543911686519</v>
+        <v>-0.150495226324977</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>-1.44077120116342</v>
+        <v>0.00939460131715412</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>0</v>
@@ -13793,10 +13793,10 @@
         <v>0</v>
       </c>
       <c r="W18" s="0" t="n">
-        <v>-0.415161288220009</v>
+        <v>-0.137089137865159</v>
       </c>
       <c r="X18" s="0" t="n">
-        <v>0.90974782481933</v>
+        <v>0.990558715210455</v>
       </c>
       <c r="Y18" s="0" t="n">
         <v>0</v>
@@ -14518,25 +14518,25 @@
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>-0.95618941111122</v>
+        <v>-0.223729156693386</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>0.151787341984654</v>
+        <v>0.0998430384514051</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.0847087218071071</v>
+        <v>0.153584639022481</v>
       </c>
       <c r="E19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>-0.175837765111621</v>
+        <v>-0.110186196173669</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>-1.34297156592688</v>
+        <v>0.0196597457733216</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0</v>
@@ -14548,31 +14548,31 @@
         <v>0</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>-0.46008835190252</v>
+        <v>-0.111631417950662</v>
       </c>
       <c r="L19" s="0" t="n">
-        <v>0.887873137584206</v>
+        <v>0.993749680013194</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>-0.603392920314044</v>
+        <v>0.0612402605147566</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.218746726976909</v>
+        <v>0.131740380345879</v>
       </c>
       <c r="O19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>-0.21162739891758</v>
+        <v>0.171622964979031</v>
       </c>
       <c r="Q19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>0.36564022804291</v>
+        <v>0.0695548461783883</v>
       </c>
       <c r="S19" s="0" t="n">
-        <v>-1.65852888045456</v>
+        <v>-0.0147596907899252</v>
       </c>
       <c r="T19" s="0" t="n">
         <v>0</v>
@@ -14584,10 +14584,10 @@
         <v>0</v>
       </c>
       <c r="W19" s="0" t="n">
-        <v>-0.297140470924219</v>
+        <v>0.0306153456149008</v>
       </c>
       <c r="X19" s="0" t="n">
-        <v>0.954833776391961</v>
+        <v>0.999531240438677</v>
       </c>
       <c r="Y19" s="0" t="n">
         <v>0</v>
@@ -15309,25 +15309,25 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
-        <v>-0.706230505452804</v>
+        <v>0.101806631645729</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>0.151556267382303</v>
+        <v>0.100009181122596</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.0954294914160217</v>
+        <v>0.14141315693884</v>
       </c>
       <c r="E20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.0265031463409342</v>
+        <v>0.0871098035638386</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>-1.56730385132966</v>
+        <v>0.00911201990925805</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0</v>
@@ -15339,31 +15339,31 @@
         <v>0</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>-0.345822522251034</v>
+        <v>0.0508813356703021</v>
       </c>
       <c r="L20" s="0" t="n">
-        <v>0.938299943037371</v>
+        <v>0.998704705946861</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>-0.411533186231961</v>
+        <v>0.442210013831351</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.157913985748467</v>
+        <v>0.127414711148306</v>
       </c>
       <c r="O20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="0" t="n">
-        <v>0.079292403421941</v>
+        <v>-0.340865175876582</v>
       </c>
       <c r="Q20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R20" s="0" t="n">
-        <v>0.652894911229548</v>
+        <v>0.273760554642989</v>
       </c>
       <c r="S20" s="0" t="n">
-        <v>-1.82080293360612</v>
+        <v>0.0408083380944975</v>
       </c>
       <c r="T20" s="0" t="n">
         <v>0</v>
@@ -15375,10 +15375,10 @@
         <v>0</v>
       </c>
       <c r="W20" s="0" t="n">
-        <v>-0.204317641427479</v>
+        <v>0.219307863058346</v>
       </c>
       <c r="X20" s="0" t="n">
-        <v>0.978904643671442</v>
+        <v>0.975655708331982</v>
       </c>
       <c r="Y20" s="0" t="n">
         <v>0</v>
@@ -16100,25 +16100,25 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
-        <v>-0.430865771989658</v>
+        <v>0.44588684033441</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.151391217402705</v>
+        <v>0.099937081149975</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.112425603473455</v>
+        <v>0.0648025351557396</v>
       </c>
       <c r="E21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>0.277483116142476</v>
+        <v>0.278804407836666</v>
       </c>
       <c r="G21" s="0" t="n">
-        <v>-1.72948900235315</v>
+        <v>0.0636960467623076</v>
       </c>
       <c r="H21" s="0" t="n">
         <v>0</v>
@@ -16130,31 +16130,31 @@
         <v>0</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>-0.213770327696287</v>
+        <v>0.22110114982689</v>
       </c>
       <c r="L21" s="0" t="n">
-        <v>0.976883947558062</v>
+        <v>0.975250881335273</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>-0.0898493484219861</v>
+        <v>0.791424177138744</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.162128224257953</v>
+        <v>0.0999949272611894</v>
       </c>
       <c r="O21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P21" s="0" t="n">
-        <v>0.430732405838141</v>
+        <v>-0.0868394428039014</v>
       </c>
       <c r="Q21" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R21" s="0" t="n">
-        <v>0.968172707677714</v>
+        <v>0.450889161139634</v>
       </c>
       <c r="S21" s="0" t="n">
-        <v>-1.91192515458873</v>
+        <v>0.164485064455618</v>
       </c>
       <c r="T21" s="0" t="n">
         <v>0</v>
@@ -16166,10 +16166,10 @@
         <v>0</v>
       </c>
       <c r="W21" s="0" t="n">
-        <v>-0.0449095643755952</v>
+        <v>0.385465346493387</v>
       </c>
       <c r="X21" s="0" t="n">
-        <v>0.998991056530335</v>
+        <v>0.922722312861639</v>
       </c>
       <c r="Y21" s="0" t="n">
         <v>0</v>
@@ -16891,25 +16891,25 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="n">
-        <v>-0.150875361729123</v>
+        <v>0.79945611757962</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>0.151313276175878</v>
+        <v>0.100554571185835</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D22" s="0" t="n">
-        <v>0.157429618681835</v>
+        <v>0.158871879340298</v>
       </c>
       <c r="E22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="0" t="n">
-        <v>0.566580640170115</v>
+        <v>0.440613483580977</v>
       </c>
       <c r="G22" s="0" t="n">
-        <v>-1.81801416703464</v>
+        <v>0.175897160966045</v>
       </c>
       <c r="H22" s="0" t="n">
         <v>0</v>
@@ -16921,31 +16921,31 @@
         <v>0</v>
       </c>
       <c r="K22" s="0" t="n">
-        <v>-0.0753661505459125</v>
+        <v>0.389167853471233</v>
       </c>
       <c r="L22" s="0" t="n">
-        <v>0.997155927301187</v>
+        <v>0.921166858839696</v>
       </c>
       <c r="M22" s="0" t="n">
-        <v>0.209426104784101</v>
+        <v>1.16387638148943</v>
       </c>
       <c r="N22" s="0" t="n">
-        <v>0.160853140095335</v>
+        <v>0.100716065705048</v>
       </c>
       <c r="O22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P22" s="0" t="n">
-        <v>-0.0952548230874463</v>
+        <v>-0.229260221620432</v>
       </c>
       <c r="Q22" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R22" s="0" t="n">
-        <v>1.29575674781904</v>
+        <v>0.578500250602163</v>
       </c>
       <c r="S22" s="0" t="n">
-        <v>-1.89213027124309</v>
+        <v>0.343803872837883</v>
       </c>
       <c r="T22" s="0" t="n">
         <v>0</v>
@@ -16957,10 +16957,10 @@
         <v>0</v>
       </c>
       <c r="W22" s="0" t="n">
-        <v>0.104521797255939</v>
+        <v>0.549644130594714</v>
       </c>
       <c r="X22" s="0" t="n">
-        <v>0.99452259597175</v>
+        <v>0.835398904537695</v>
       </c>
       <c r="Y22" s="0" t="n">
         <v>0</v>
@@ -17682,25 +17682,25 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>0.858457872082939</v>
+        <v>1.12619974677414</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>0.12278635921391</v>
+        <v>0.100791630049534</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>0.839429144035261</v>
+        <v>0.136841488122958</v>
       </c>
       <c r="E23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F23" s="0" t="n">
-        <v>0.728138223096107</v>
+        <v>0.553555737314467</v>
       </c>
       <c r="G23" s="0" t="n">
-        <v>-1.81857721591846</v>
+        <v>0.337480912180353</v>
       </c>
       <c r="H23" s="0" t="n">
         <v>0</v>
@@ -17712,31 +17712,31 @@
         <v>0</v>
       </c>
       <c r="K23" s="0" t="n">
-        <v>0.416169807846447</v>
+        <v>0.533810025146174</v>
       </c>
       <c r="L23" s="0" t="n">
-        <v>0.909286913486085</v>
+        <v>0.845604432966999</v>
       </c>
       <c r="M23" s="0" t="n">
-        <v>1.21214312501446</v>
+        <v>1.48912056820774</v>
       </c>
       <c r="N23" s="0" t="n">
-        <v>0.13134349621332</v>
+        <v>0.0872768270511991</v>
       </c>
       <c r="O23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P23" s="0" t="n">
-        <v>1.11537839323408</v>
+        <v>0.10746382028955</v>
       </c>
       <c r="Q23" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R23" s="0" t="n">
-        <v>1.45249398254601</v>
+        <v>0.634824398638746</v>
       </c>
       <c r="S23" s="0" t="n">
-        <v>-1.85156238044909</v>
+        <v>0.544480159261328</v>
       </c>
       <c r="T23" s="0" t="n">
         <v>0</v>
@@ -17748,10 +17748,10 @@
         <v>0</v>
       </c>
       <c r="W23" s="0" t="n">
-        <v>0.569643111960752</v>
+        <v>0.677648515087453</v>
       </c>
       <c r="X23" s="0" t="n">
-        <v>0.821892161415152</v>
+        <v>0.735385946289273</v>
       </c>
       <c r="Y23" s="0" t="n">
         <v>0</v>
@@ -18473,25 +18473,25 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>1.36763751053551</v>
+        <v>1.44112941879456</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>0.146454551725695</v>
+        <v>0.105036914597963</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>0.188089833838618</v>
+        <v>0.105441120677849</v>
       </c>
       <c r="E24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F24" s="0" t="n">
-        <v>0.833315102257517</v>
+        <v>0.612575807910598</v>
       </c>
       <c r="G24" s="0" t="n">
-        <v>-1.55160962072211</v>
+        <v>0.528114547720474</v>
       </c>
       <c r="H24" s="0" t="n">
         <v>0</v>
@@ -18503,31 +18503,31 @@
         <v>0</v>
       </c>
       <c r="K24" s="0" t="n">
-        <v>0.631757791912545</v>
+        <v>0.659809118571289</v>
       </c>
       <c r="L24" s="0" t="n">
-        <v>0.775165848291696</v>
+        <v>0.751433248565818</v>
       </c>
       <c r="M24" s="0" t="n">
-        <v>1.72544037903512</v>
+        <v>1.79673257664099</v>
       </c>
       <c r="N24" s="0" t="n">
-        <v>0.187477212939759</v>
+        <v>0.0905764138590688</v>
       </c>
       <c r="O24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P24" s="0" t="n">
-        <v>0.345956504785734</v>
+        <v>0.240178139799384</v>
       </c>
       <c r="Q24" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R24" s="0" t="n">
-        <v>1.45456682556835</v>
+        <v>0.625767037787472</v>
       </c>
       <c r="S24" s="0" t="n">
-        <v>-1.5359424835854</v>
+        <v>0.764086094108759</v>
       </c>
       <c r="T24" s="0" t="n">
         <v>0</v>
@@ -18539,10 +18539,10 @@
         <v>0</v>
       </c>
       <c r="W24" s="0" t="n">
-        <v>0.759614510468195</v>
+        <v>0.782310333259013</v>
       </c>
       <c r="X24" s="0" t="n">
-        <v>0.650373581479264</v>
+        <v>0.622888868479901</v>
       </c>
       <c r="Y24" s="0" t="n">
         <v>0</v>
@@ -19264,25 +19264,25 @@
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="n">
-        <v>1.61591132619961</v>
+        <v>1.78563087173908</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.145293430552522</v>
+        <v>0.100714016547168</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.0643412299895582</v>
+        <v>0.226391795997429</v>
       </c>
       <c r="E25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>0.854263910154213</v>
+        <v>0.606579737607534</v>
       </c>
       <c r="G25" s="0" t="n">
-        <v>-1.26120794768568</v>
+        <v>0.72500545077935</v>
       </c>
       <c r="H25" s="0" t="n">
         <v>0</v>
@@ -19294,31 +19294,31 @@
         <v>0</v>
       </c>
       <c r="K25" s="0" t="n">
-        <v>0.722876094751863</v>
+        <v>0.778840734584887</v>
       </c>
       <c r="L25" s="0" t="n">
-        <v>0.69097767810277</v>
+        <v>0.627221739220887</v>
       </c>
       <c r="M25" s="0" t="n">
-        <v>2.0189306172459</v>
+        <v>2.17710267827106</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.17592410671866</v>
+        <v>0.119454485338736</v>
       </c>
       <c r="O25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P25" s="0" t="n">
-        <v>0.0229794102283485</v>
+        <v>0.161176839566808</v>
       </c>
       <c r="Q25" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>1.3566497114956</v>
+        <v>0.541056285044309</v>
       </c>
       <c r="S25" s="0" t="n">
-        <v>-1.22483627616397</v>
+        <v>0.96310705204373</v>
       </c>
       <c r="T25" s="0" t="n">
         <v>0</v>
@@ -19330,10 +19330,10 @@
         <v>0</v>
       </c>
       <c r="W25" s="0" t="n">
-        <v>0.846547342237619</v>
+        <v>0.885955999886874</v>
       </c>
       <c r="X25" s="0" t="n">
-        <v>0.532313439009785</v>
+        <v>0.463769302848355</v>
       </c>
       <c r="Y25" s="0" t="n">
         <v>0</v>
@@ -20055,25 +20055,25 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="n">
-        <v>1.88555893732455</v>
+        <v>2.1084217377612</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>0.146880411181267</v>
+        <v>0.0999671456414083</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>0.118331430478289</v>
+        <v>0.176470495673582</v>
       </c>
       <c r="E26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>0.804381744197</v>
+        <v>0.536503374791477</v>
       </c>
       <c r="G26" s="0" t="n">
-        <v>-0.977597765223236</v>
+        <v>0.908632141269457</v>
       </c>
       <c r="H26" s="0" t="n">
         <v>0</v>
@@ -20085,31 +20085,31 @@
         <v>0</v>
       </c>
       <c r="K26" s="0" t="n">
-        <v>0.809194276256099</v>
+        <v>0.869510735533665</v>
       </c>
       <c r="L26" s="0" t="n">
-        <v>0.587541167301805</v>
+        <v>0.49391404190578</v>
       </c>
       <c r="M26" s="0" t="n">
-        <v>2.34155480645009</v>
+        <v>2.42547200985173</v>
       </c>
       <c r="N26" s="0" t="n">
-        <v>0.168462806896259</v>
+        <v>0.0875052592453677</v>
       </c>
       <c r="O26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P26" s="0" t="n">
-        <v>0.287422126482594</v>
+        <v>0.499588418566247</v>
       </c>
       <c r="Q26" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R26" s="0" t="n">
-        <v>1.17572800987513</v>
+        <v>0.40691400619548</v>
       </c>
       <c r="S26" s="0" t="n">
-        <v>-0.967006985592221</v>
+        <v>1.11968530499469</v>
       </c>
       <c r="T26" s="0" t="n">
         <v>0</v>
@@ -20121,10 +20121,10 @@
         <v>0</v>
       </c>
       <c r="W26" s="0" t="n">
-        <v>0.921053624652766</v>
+        <v>0.936578361290114</v>
       </c>
       <c r="X26" s="0" t="n">
-        <v>0.389435772000983</v>
+        <v>0.350458233122188</v>
       </c>
       <c r="Y26" s="0" t="n">
         <v>0</v>
@@ -20846,25 +20846,25 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>2.60535511134524</v>
+        <v>2.39231755032288</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>-0.000905782294901135</v>
+        <v>0.0996483869316468</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>1.23203606199685</v>
+        <v>0.21069875985588</v>
       </c>
       <c r="E27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F27" s="0" t="n">
-        <v>0.725235345726041</v>
+        <v>0.412612217532702</v>
       </c>
       <c r="G27" s="0" t="n">
-        <v>-0.792554293823171</v>
+        <v>1.06228601707474</v>
       </c>
       <c r="H27" s="0" t="n">
         <v>0</v>
@@ -20876,31 +20876,31 @@
         <v>0</v>
       </c>
       <c r="K27" s="0" t="n">
-        <v>0.964270973548472</v>
+        <v>0.930640315669442</v>
       </c>
       <c r="L27" s="0" t="n">
-        <v>0.264917892132415</v>
+        <v>0.36593524406742</v>
       </c>
       <c r="M27" s="0" t="n">
-        <v>3.09000264130597</v>
+        <v>2.77024723023691</v>
       </c>
       <c r="N27" s="0" t="n">
-        <v>0.022377671137612</v>
+        <v>0.0552600583905021</v>
       </c>
       <c r="O27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P27" s="0" t="n">
-        <v>1.3295318846086</v>
+        <v>0.281371269576664</v>
       </c>
       <c r="Q27" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R27" s="0" t="n">
-        <v>1.00983224284092</v>
+        <v>0.223817558527403</v>
       </c>
       <c r="S27" s="0" t="n">
-        <v>-0.827161808317828</v>
+        <v>1.23017286727199</v>
       </c>
       <c r="T27" s="0" t="n">
         <v>0</v>
@@ -20912,10 +20912,10 @@
         <v>0</v>
       </c>
       <c r="W27" s="0" t="n">
-        <v>0.999667327275896</v>
+        <v>0.982812285249151</v>
       </c>
       <c r="X27" s="0" t="n">
-        <v>0.0257921456468152</v>
+        <v>0.184607724549493</v>
       </c>
       <c r="Y27" s="0" t="n">
         <v>0</v>
@@ -21637,25 +21637,25 @@
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>-1.42621120387363</v>
+        <v>2.73082771020711</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>0.198820409428415</v>
+        <v>0.098752029667171</v>
       </c>
       <c r="C28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.515840282423656</v>
+        <v>0.298527938791003</v>
       </c>
       <c r="E28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.705369558361305</v>
+        <v>0.246753034451798</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>-0.905151071006698</v>
+        <v>1.16953314012499</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0</v>
@@ -21667,31 +21667,31 @@
         <v>0</v>
       </c>
       <c r="K28" s="0" t="n">
-        <v>-0.65418579395786</v>
+        <v>0.978983054234684</v>
       </c>
       <c r="L28" s="0" t="n">
-        <v>0.756333885915291</v>
+        <v>0.203941608116955</v>
       </c>
       <c r="M28" s="0" t="n">
-        <v>-0.796391344044294</v>
+        <v>3.05760958594719</v>
       </c>
       <c r="N28" s="0" t="n">
-        <v>0.174097878474507</v>
+        <v>0.109315530278317</v>
       </c>
       <c r="O28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P28" s="0" t="n">
-        <v>0.705659933649025</v>
+        <v>0.267645248790107</v>
       </c>
       <c r="Q28" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R28" s="0" t="n">
-        <v>1.06266628760697</v>
+        <v>0.00444435467296997</v>
       </c>
       <c r="S28" s="0" t="n">
-        <v>-0.923807557158898</v>
+        <v>1.2785282341184</v>
       </c>
       <c r="T28" s="0" t="n">
         <v>0</v>
@@ -21703,10 +21703,10 @@
         <v>0</v>
       </c>
       <c r="W28" s="0" t="n">
-        <v>-0.387755813194708</v>
+        <v>0.999118485085544</v>
       </c>
       <c r="X28" s="0" t="n">
-        <v>0.921762132729323</v>
+        <v>0.0419791943749156</v>
       </c>
       <c r="Y28" s="0" t="n">
         <v>0</v>
@@ -22428,25 +22428,25 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>-1.15525987318035</v>
+        <v>3.05456434082015</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.199179014348288</v>
+        <v>0.0999604071717891</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.0970190054444127</v>
+        <v>0.156275903151624</v>
       </c>
       <c r="E29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.813099864405011</v>
+        <v>0.0557584693525241</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>-1.28294233168341</v>
+        <v>1.21918082629842</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0</v>
@@ -22458,31 +22458,31 @@
         <v>0</v>
       </c>
       <c r="K29" s="0" t="n">
-        <v>-0.546039929948148</v>
+        <v>0.99905340847402</v>
       </c>
       <c r="L29" s="0" t="n">
-        <v>0.837759150891366</v>
+        <v>0.0435004254742789</v>
       </c>
       <c r="M29" s="0" t="n">
-        <v>-0.536918975720854</v>
+        <v>-2.84711190142941</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.226749589879318</v>
+        <v>0.111810849106284</v>
       </c>
       <c r="O29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P29" s="0" t="n">
-        <v>0.256958897769471</v>
+        <v>0.293749362060335</v>
       </c>
       <c r="Q29" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>1.40344628181064</v>
+        <v>-0.208706815477734</v>
       </c>
       <c r="S29" s="0" t="n">
-        <v>-1.1927695892898</v>
+        <v>1.2574261888008</v>
       </c>
       <c r="T29" s="0" t="n">
         <v>0</v>
@@ -22494,10 +22494,10 @@
         <v>0</v>
       </c>
       <c r="W29" s="0" t="n">
-        <v>-0.265246420009975</v>
+        <v>0.989179705454881</v>
       </c>
       <c r="X29" s="0" t="n">
-        <v>0.964180655620041</v>
+        <v>-0.146708930594547</v>
       </c>
       <c r="Y29" s="0" t="n">
         <v>0</v>
@@ -23219,25 +23219,25 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="n">
-        <v>-0.6706907771708</v>
+        <v>-2.92188013122976</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.0205874804832037</v>
+        <v>0.0998403708427929</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.907584076133992</v>
+        <v>0.105338513423769</v>
       </c>
       <c r="E30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.99027148944665</v>
+        <v>-0.140769839259123</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>-1.58168326791379</v>
+        <v>1.20381648608472</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0</v>
@@ -23249,31 +23249,31 @@
         <v>0</v>
       </c>
       <c r="K30" s="0" t="n">
-        <v>-0.329095338798324</v>
+        <v>0.993971867092076</v>
       </c>
       <c r="L30" s="0" t="n">
-        <v>0.944296700185496</v>
+        <v>-0.109635429626977</v>
       </c>
       <c r="M30" s="0" t="n">
-        <v>-0.0674425456990386</v>
+        <v>-2.53833783126499</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.0339721672823916</v>
+        <v>0.0913575289085729</v>
       </c>
       <c r="O30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P30" s="0" t="n">
-        <v>0.723250305374841</v>
+        <v>0.513148195720328</v>
       </c>
       <c r="Q30" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>1.75282792662633</v>
+        <v>-0.408141051500865</v>
       </c>
       <c r="S30" s="0" t="n">
-        <v>-1.33770964338329</v>
+        <v>1.16089297852026</v>
       </c>
       <c r="T30" s="0" t="n">
         <v>0</v>
@@ -23285,10 +23285,10 @@
         <v>0</v>
       </c>
       <c r="W30" s="0" t="n">
-        <v>-0.033714882333396</v>
+        <v>0.954854291366511</v>
       </c>
       <c r="X30" s="0" t="n">
-        <v>0.99943149175381</v>
+        <v>-0.297074539903637</v>
       </c>
       <c r="Y30" s="0" t="n">
         <v>0</v>
@@ -24010,25 +24010,25 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>0.577546265498693</v>
+        <v>-2.55780501055146</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>0.133612661419035</v>
+        <v>0.0993832938583529</v>
       </c>
       <c r="C31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>0.0815442235729019</v>
+        <v>0.249457787747639</v>
       </c>
       <c r="E31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F31" s="0" t="n">
-        <v>1.16002588554213</v>
+        <v>-0.32124636314749</v>
       </c>
       <c r="G31" s="0" t="n">
-        <v>-1.50455404798555</v>
+        <v>1.12546991340462</v>
       </c>
       <c r="H31" s="0" t="n">
         <v>0</v>
@@ -24040,31 +24040,31 @@
         <v>0</v>
       </c>
       <c r="K31" s="0" t="n">
-        <v>0.284776372162676</v>
+        <v>0.957700614960014</v>
       </c>
       <c r="L31" s="0" t="n">
-        <v>0.958593979669111</v>
+        <v>-0.287766454099867</v>
       </c>
       <c r="M31" s="0" t="n">
-        <v>1.30543720853066</v>
+        <v>-2.22993390552075</v>
       </c>
       <c r="N31" s="0" t="n">
-        <v>0.187823745701352</v>
+        <v>0.126288745538506</v>
       </c>
       <c r="O31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P31" s="0" t="n">
-        <v>0.044417657103014</v>
+        <v>0.0849369566423723</v>
       </c>
       <c r="Q31" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R31" s="0" t="n">
-        <v>1.8384301903984</v>
+        <v>-0.566391965970884</v>
       </c>
       <c r="S31" s="0" t="n">
-        <v>-1.16645485111049</v>
+        <v>1.01101474395309</v>
       </c>
       <c r="T31" s="0" t="n">
         <v>0</v>
@@ -24076,10 +24076,10 @@
         <v>0</v>
       </c>
       <c r="W31" s="0" t="n">
-        <v>0.607348403473188</v>
+        <v>0.897896240648648</v>
       </c>
       <c r="X31" s="0" t="n">
-        <v>0.79443559638184</v>
+        <v>-0.44020715694889</v>
       </c>
       <c r="Y31" s="0" t="n">
         <v>0</v>
@@ -24801,25 +24801,25 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>0.851654258970881</v>
+        <v>-2.24497484268529</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>0.134781282306171</v>
+        <v>0.100080302796618</v>
       </c>
       <c r="C32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>0.129740901100652</v>
+        <v>0.117011847139429</v>
       </c>
       <c r="E32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F32" s="0" t="n">
-        <v>1.36218321134826</v>
+        <v>-0.46496626766736</v>
       </c>
       <c r="G32" s="0" t="n">
-        <v>-1.32927655625003</v>
+        <v>0.992701500129797</v>
       </c>
       <c r="H32" s="0" t="n">
         <v>0</v>
@@ -24831,31 +24831,31 @@
         <v>0</v>
       </c>
       <c r="K32" s="0" t="n">
-        <v>0.413074187612689</v>
+        <v>0.901181382295924</v>
       </c>
       <c r="L32" s="0" t="n">
-        <v>0.910697378676428</v>
+        <v>-0.433442171694459</v>
       </c>
       <c r="M32" s="0" t="n">
-        <v>1.57925820913957</v>
+        <v>-1.87117676622056</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>0.170168419003445</v>
+        <v>0.0951332474015377</v>
       </c>
       <c r="O32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P32" s="0" t="n">
-        <v>0.0652210400428502</v>
+        <v>0.432933405906507</v>
       </c>
       <c r="Q32" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>1.87803489962828</v>
+        <v>-0.666665925788267</v>
       </c>
       <c r="S32" s="0" t="n">
-        <v>-0.88318625156938</v>
+        <v>0.815420228800138</v>
       </c>
       <c r="T32" s="0" t="n">
         <v>0</v>
@@ -24867,10 +24867,10 @@
         <v>0</v>
       </c>
       <c r="W32" s="0" t="n">
-        <v>0.710092170553127</v>
+        <v>-0.804948331550503</v>
       </c>
       <c r="X32" s="0" t="n">
-        <v>0.70410873401709</v>
+        <v>0.593344911104883</v>
       </c>
       <c r="Y32" s="0" t="n">
         <v>0</v>
@@ -25592,25 +25592,25 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="n">
-        <v>1.15199324959239</v>
+        <v>-1.92039058014917</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>0.134495276290531</v>
+        <v>0.0999926048737689</v>
       </c>
       <c r="C33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D33" s="0" t="n">
-        <v>0.109533875368528</v>
+        <v>0.102744207285274</v>
       </c>
       <c r="E33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="0" t="n">
-        <v>1.5046238014153</v>
+        <v>-0.56192388207076</v>
       </c>
       <c r="G33" s="0" t="n">
-        <v>-1.10563538813003</v>
+        <v>0.820678288623064</v>
       </c>
       <c r="H33" s="0" t="n">
         <v>0</v>
@@ -25622,31 +25622,31 @@
         <v>0</v>
       </c>
       <c r="K33" s="0" t="n">
-        <v>0.54467088031764</v>
+        <v>-0.819303555439891</v>
       </c>
       <c r="L33" s="0" t="n">
-        <v>0.838649886504498</v>
+        <v>0.573359995154488</v>
       </c>
       <c r="M33" s="0" t="n">
-        <v>1.91711868464302</v>
+        <v>-1.5244016937772</v>
       </c>
       <c r="N33" s="0" t="n">
-        <v>0.153927874809707</v>
+        <v>0.130795317516461</v>
       </c>
       <c r="O33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P33" s="0" t="n">
-        <v>0.234979172207345</v>
+        <v>0.201285280956557</v>
       </c>
       <c r="Q33" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R33" s="0" t="n">
-        <v>1.8295190314095</v>
+        <v>-0.690872855808774</v>
       </c>
       <c r="S33" s="0" t="n">
-        <v>-0.586060076107828</v>
+        <v>0.59739144200607</v>
       </c>
       <c r="T33" s="0" t="n">
         <v>0</v>
@@ -25658,10 +25658,10 @@
         <v>0</v>
       </c>
       <c r="W33" s="0" t="n">
-        <v>0.818364472501436</v>
+        <v>-0.690515028428669</v>
       </c>
       <c r="X33" s="0" t="n">
-        <v>0.574699565118546</v>
+        <v>0.723318045892783</v>
       </c>
       <c r="Y33" s="0" t="n">
         <v>0</v>
@@ -26383,25 +26383,25 @@
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>1.40091925478074</v>
+        <v>-1.59421511825159</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>0.13474329753912</v>
+        <v>0.100798581526925</v>
       </c>
       <c r="C34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>0.111284641568817</v>
+        <v>0.230405605532481</v>
       </c>
       <c r="E34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F34" s="0" t="n">
-        <v>1.58379032525243</v>
+        <v>-0.600376731830971</v>
       </c>
       <c r="G34" s="0" t="n">
-        <v>-0.84981313169996</v>
+        <v>0.628943095427353</v>
       </c>
       <c r="H34" s="0" t="n">
         <v>0</v>
@@ -26413,31 +26413,31 @@
         <v>0</v>
       </c>
       <c r="K34" s="0" t="n">
-        <v>0.644569161596043</v>
+        <v>-0.715337909970714</v>
       </c>
       <c r="L34" s="0" t="n">
-        <v>0.764546006411239</v>
+        <v>0.698778702135898</v>
       </c>
       <c r="M34" s="0" t="n">
-        <v>2.30375231848508</v>
+        <v>-1.20531657436925</v>
       </c>
       <c r="N34" s="0" t="n">
-        <v>0.141840201897185</v>
+        <v>0.106104121204953</v>
       </c>
       <c r="O34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P34" s="0" t="n">
-        <v>0.303929749871361</v>
+        <v>0.540392307812245</v>
       </c>
       <c r="Q34" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R34" s="0" t="n">
-        <v>1.68396375611511</v>
+        <v>-0.651075071042175</v>
       </c>
       <c r="S34" s="0" t="n">
-        <v>-0.339733249280527</v>
+        <v>0.391666885207543</v>
       </c>
       <c r="T34" s="0" t="n">
         <v>0</v>
@@ -26449,10 +26449,10 @@
         <v>0</v>
       </c>
       <c r="W34" s="0" t="n">
-        <v>0.913528720846616</v>
+        <v>-0.566834454879976</v>
       </c>
       <c r="X34" s="0" t="n">
-        <v>0.406774232453761</v>
+        <v>0.823831718715005</v>
       </c>
       <c r="Y34" s="0" t="n">
         <v>0</v>
@@ -27174,25 +27174,25 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>1.67996968251348</v>
+        <v>-1.25294570707182</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>0.133188984704684</v>
+        <v>0.101310660228711</v>
       </c>
       <c r="C35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>0.22817864920424</v>
+        <v>0.208463838448984</v>
       </c>
       <c r="E35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F35" s="0" t="n">
-        <v>1.59190667155464</v>
+        <v>-0.57287222930226</v>
       </c>
       <c r="G35" s="0" t="n">
-        <v>-0.582206891833392</v>
+        <v>0.433387328569292</v>
       </c>
       <c r="H35" s="0" t="n">
         <v>0</v>
@@ -27204,31 +27204,31 @@
         <v>0</v>
       </c>
       <c r="K35" s="0" t="n">
-        <v>0.744633001987692</v>
+        <v>-0.586291067781751</v>
       </c>
       <c r="L35" s="0" t="n">
-        <v>0.667474113618496</v>
+        <v>0.810100477619495</v>
       </c>
       <c r="M35" s="0" t="n">
-        <v>2.62479098122762</v>
+        <v>-0.881067765719305</v>
       </c>
       <c r="N35" s="0" t="n">
-        <v>0.152322134127113</v>
+        <v>0.117361699951111</v>
       </c>
       <c r="O35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P35" s="0" t="n">
-        <v>0.382923309361353</v>
+        <v>0.107379468278684</v>
       </c>
       <c r="Q35" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R35" s="0" t="n">
-        <v>1.45571473953074</v>
+        <v>-0.541051014582226</v>
       </c>
       <c r="S35" s="0" t="n">
-        <v>-0.156395437540461</v>
+        <v>0.20542269289651</v>
       </c>
       <c r="T35" s="0" t="n">
         <v>0</v>
@@ -27240,10 +27240,10 @@
         <v>0</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>0.966799856190096</v>
+        <v>-0.426422435745334</v>
       </c>
       <c r="X35" s="0" t="n">
-        <v>0.255534807943672</v>
+        <v>0.904524132510027</v>
       </c>
       <c r="Y35" s="0" t="n">
         <v>0</v>
@@ -27965,25 +27965,25 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>1.95265112193588</v>
+        <v>-0.947847138579416</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>0.134161256461086</v>
+        <v>0.09911609558665</v>
       </c>
       <c r="C36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>0.0660611826226591</v>
+        <v>0.201077243384119</v>
       </c>
       <c r="E36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F36" s="0" t="n">
-        <v>1.52618702251571</v>
+        <v>-0.485001311105669</v>
       </c>
       <c r="G36" s="0" t="n">
-        <v>-0.325164686232488</v>
+        <v>0.258967564233393</v>
       </c>
       <c r="H36" s="0" t="n">
         <v>0</v>
@@ -27995,31 +27995,31 @@
         <v>0</v>
       </c>
       <c r="K36" s="0" t="n">
-        <v>0.828445023235351</v>
+        <v>-0.456380920408118</v>
       </c>
       <c r="L36" s="0" t="n">
-        <v>0.560070391537151</v>
+        <v>0.889784499464583</v>
       </c>
       <c r="M36" s="0" t="n">
-        <v>2.92108567169122</v>
+        <v>-0.564243586227188</v>
       </c>
       <c r="N36" s="0" t="n">
-        <v>0.154964279145641</v>
+        <v>0.0931058163445466</v>
       </c>
       <c r="O36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P36" s="0" t="n">
-        <v>-0.0394942825420009</v>
+        <v>0.504001513896957</v>
       </c>
       <c r="Q36" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R36" s="0" t="n">
-        <v>1.18188474589745</v>
+        <v>-0.375979664998747</v>
       </c>
       <c r="S36" s="0" t="n">
-        <v>-0.0528211768079313</v>
+        <v>0.0627511537133515</v>
       </c>
       <c r="T36" s="0" t="n">
         <v>0</v>
@@ -28031,10 +28031,10 @@
         <v>0</v>
       </c>
       <c r="W36" s="0" t="n">
-        <v>0.993928238216658</v>
+        <v>-0.278394185767688</v>
       </c>
       <c r="X36" s="0" t="n">
-        <v>0.110030256182247</v>
+        <v>0.960466905900847</v>
       </c>
       <c r="Y36" s="0" t="n">
         <v>0</v>
@@ -28756,25 +28756,25 @@
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>2.21634601161214</v>
+        <v>-0.62351455828452</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>0.134972436921455</v>
+        <v>0.0999145195127348</v>
       </c>
       <c r="C37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>0.181054226331904</v>
+        <v>0.213115235615785</v>
       </c>
       <c r="E37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F37" s="0" t="n">
-        <v>1.39419151853814</v>
+        <v>-0.344638691595344</v>
       </c>
       <c r="G37" s="0" t="n">
-        <v>-0.0920680362744502</v>
+        <v>0.120333102502152</v>
       </c>
       <c r="H37" s="0" t="n">
         <v>0</v>
@@ -28786,31 +28786,31 @@
         <v>0</v>
       </c>
       <c r="K37" s="0" t="n">
-        <v>0.894884797243254</v>
+        <v>-0.30673168048598</v>
       </c>
       <c r="L37" s="0" t="n">
-        <v>0.446297210010214</v>
+        <v>0.951796026565696</v>
       </c>
       <c r="M37" s="0" t="n">
-        <v>-3.01930808741167</v>
+        <v>-0.139601483418993</v>
       </c>
       <c r="N37" s="0" t="n">
-        <v>0.134268488813732</v>
+        <v>0.175005871618023</v>
       </c>
       <c r="O37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P37" s="0" t="n">
-        <v>0.288009234353091</v>
+        <v>0.419550737081253</v>
       </c>
       <c r="Q37" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R37" s="0" t="n">
-        <v>0.888770851962811</v>
+        <v>-0.17041425079781</v>
       </c>
       <c r="S37" s="0" t="n">
-        <v>-0.0411381054435474</v>
+        <v>-0.0115685191512412</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>0</v>
@@ -28822,10 +28822,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>0.998131392848267</v>
+        <v>-0.0697440756433467</v>
       </c>
       <c r="X37" s="0" t="n">
-        <v>-0.0611041947069058</v>
+        <v>0.997564917142065</v>
       </c>
       <c r="Y37" s="0" t="n">
         <v>0</v>
@@ -29547,25 +29547,25 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="n">
-        <v>2.51542841270696</v>
+        <v>-0.296883089297394</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>0.135485120080524</v>
+        <v>0.0998868466564604</v>
       </c>
       <c r="C38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D38" s="0" t="n">
-        <v>0.175286167574498</v>
+        <v>0.189063046523081</v>
       </c>
       <c r="E38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F38" s="0" t="n">
-        <v>1.20569459948262</v>
+        <v>-0.168217658797846</v>
       </c>
       <c r="G38" s="0" t="n">
-        <v>0.0945861583524171</v>
+        <v>0.0321205867687236</v>
       </c>
       <c r="H38" s="0" t="n">
         <v>0</v>
@@ -29577,31 +29577,31 @@
         <v>0</v>
       </c>
       <c r="K38" s="0" t="n">
-        <v>0.951388820588309</v>
+        <v>-0.147896996043383</v>
       </c>
       <c r="L38" s="0" t="n">
-        <v>0.307992389613098</v>
+        <v>0.98900276974402</v>
       </c>
       <c r="M38" s="0" t="n">
-        <v>-2.67173668828792</v>
+        <v>0.215047991776469</v>
       </c>
       <c r="N38" s="0" t="n">
-        <v>0.144182493221546</v>
+        <v>0.128319666309974</v>
       </c>
       <c r="O38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P38" s="0" t="n">
-        <v>0.257497185971176</v>
+        <v>-0.0838480973085919</v>
       </c>
       <c r="Q38" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>0.60536575030264</v>
+        <v>0.0461795810467574</v>
       </c>
       <c r="S38" s="0" t="n">
-        <v>-0.12184819979379</v>
+        <v>0.00189142211273659</v>
       </c>
       <c r="T38" s="0" t="n">
         <v>0</v>
@@ -29613,10 +29613,10 @@
         <v>0</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>0.972531107545221</v>
+        <v>0.107316927463271</v>
       </c>
       <c r="X38" s="0" t="n">
-        <v>-0.232772947003869</v>
+        <v>0.994224862432962</v>
       </c>
       <c r="Y38" s="0" t="n">
         <v>0</v>
@@ -30338,25 +30338,25 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="n">
-        <v>2.80052172769961</v>
+        <v>-0.00398579156798156</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>0.134577209797151</v>
+        <v>0.0998824363187727</v>
       </c>
       <c r="C39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D39" s="0" t="n">
-        <v>0.143914602171031</v>
+        <v>0.137640692270501</v>
       </c>
       <c r="E39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F39" s="0" t="n">
-        <v>0.969804210701608</v>
+        <v>0.0271085749507908</v>
       </c>
       <c r="G39" s="0" t="n">
-        <v>0.220383340927736</v>
+        <v>0.00453394184654731</v>
       </c>
       <c r="H39" s="0" t="n">
         <v>0</v>
@@ -30368,31 +30368,31 @@
         <v>0</v>
       </c>
       <c r="K39" s="0" t="n">
-        <v>0.985494034741294</v>
+        <v>-0.00199289446481573</v>
       </c>
       <c r="L39" s="0" t="n">
-        <v>0.169710068909673</v>
+        <v>0.999998014183854</v>
       </c>
       <c r="M39" s="0" t="n">
-        <v>-2.37764799463245</v>
+        <v>0.527724575393499</v>
       </c>
       <c r="N39" s="0" t="n">
-        <v>0.143796846456073</v>
+        <v>0.0998644461943146</v>
       </c>
       <c r="O39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P39" s="0" t="n">
-        <v>0.217824276237178</v>
+        <v>-0.22819532147361</v>
       </c>
       <c r="Q39" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>0.368574618379791</v>
+        <v>0.245635174437633</v>
       </c>
       <c r="S39" s="0" t="n">
-        <v>-0.286860307286526</v>
+        <v>0.0759113161361346</v>
       </c>
       <c r="T39" s="0" t="n">
         <v>0</v>
@@ -30404,10 +30404,10 @@
         <v>0</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>0.927931252383824</v>
+        <v>0.260811101268113</v>
       </c>
       <c r="X39" s="0" t="n">
-        <v>-0.372751379406419</v>
+        <v>0.965389853611127</v>
       </c>
       <c r="Y39" s="0" t="n">
         <v>0</v>
@@ -31129,25 +31129,25 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>3.05236368775937</v>
+        <v>0.356303458705845</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>0.133965491805912</v>
+        <v>0.0995750237998769</v>
       </c>
       <c r="C40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>0.17444588002228</v>
+        <v>0.172140375211026</v>
       </c>
       <c r="E40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F40" s="0" t="n">
-        <v>0.707805851532716</v>
+        <v>0.220642687018453</v>
       </c>
       <c r="G40" s="0" t="n">
-        <v>0.277346397415624</v>
+        <v>0.0433527579140946</v>
       </c>
       <c r="H40" s="0" t="n">
         <v>0</v>
@@ -31159,31 +31159,31 @@
         <v>0</v>
       </c>
       <c r="K40" s="0" t="n">
-        <v>0.999004939025298</v>
+        <v>0.177210859250676</v>
       </c>
       <c r="L40" s="0" t="n">
-        <v>0.0445996838896983</v>
+        <v>0.98417290724935</v>
       </c>
       <c r="M40" s="0" t="n">
-        <v>-2.08307940364082</v>
+        <v>0.889401954107221</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.144716812673013</v>
+        <v>0.125852653859147</v>
       </c>
       <c r="O40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P40" s="0" t="n">
-        <v>0.2090545600895</v>
+        <v>0.00954192676481252</v>
       </c>
       <c r="Q40" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>0.192247070314023</v>
+        <v>0.406934893246099</v>
       </c>
       <c r="S40" s="0" t="n">
-        <v>-0.516267042216837</v>
+        <v>0.221250046252354</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>0</v>
@@ -31195,10 +31195,10 @@
         <v>0</v>
       </c>
       <c r="W40" s="0" t="n">
-        <v>-0.86318263294421</v>
+        <v>0.430187959759686</v>
       </c>
       <c r="X40" s="0" t="n">
-        <v>0.50489181235538</v>
+        <v>0.902739341824537</v>
       </c>
       <c r="Y40" s="0" t="n">
         <v>0</v>
@@ -31920,25 +31920,25 @@
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>-2.23543812379175</v>
+        <v>0.677024067878903</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>0.0270373788419965</v>
+        <v>0.099943049053375</v>
       </c>
       <c r="C41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>0.946000224023502</v>
+        <v>0.117501626553352</v>
       </c>
       <c r="E41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F41" s="0" t="n">
-        <v>0.583463450006146</v>
+        <v>0.393662925635967</v>
       </c>
       <c r="G41" s="0" t="n">
-        <v>0.270298560464044</v>
+        <v>0.142937034036493</v>
       </c>
       <c r="H41" s="0" t="n">
         <v>0</v>
@@ -31950,31 +31950,31 @@
         <v>0</v>
       </c>
       <c r="K41" s="0" t="n">
-        <v>0.899104336879545</v>
+        <v>0.33208393653541</v>
       </c>
       <c r="L41" s="0" t="n">
-        <v>-0.437734384535182</v>
+        <v>0.943249839170485</v>
       </c>
       <c r="M41" s="0" t="n">
-        <v>-1.01033230286384</v>
+        <v>1.21898127880462</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>-0.0185106038818451</v>
+        <v>0.129399054144728</v>
       </c>
       <c r="O41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P41" s="0" t="n">
-        <v>0.85096615553005</v>
+        <v>-0.0958319752621161</v>
       </c>
       <c r="Q41" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R41" s="0" t="n">
-        <v>0.139133401052782</v>
+        <v>0.519840629021165</v>
       </c>
       <c r="S41" s="0" t="n">
-        <v>-0.596600147254341</v>
+        <v>0.420112727895497</v>
       </c>
       <c r="T41" s="0" t="n">
         <v>0</v>
@@ -31986,10 +31986,10 @@
         <v>0</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>-0.483952845137331</v>
+        <v>0.572449889399551</v>
       </c>
       <c r="X41" s="0" t="n">
-        <v>0.875094077047424</v>
+        <v>0.819939707616628</v>
       </c>
       <c r="Y41" s="0" t="n">
         <v>0</v>
@@ -32711,25 +32711,25 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="n">
-        <v>-0.529126374259569</v>
+        <v>0.971209448867806</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>0.144694022595117</v>
+        <v>0.0997355984496533</v>
       </c>
       <c r="C42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D42" s="0" t="n">
-        <v>0.0383352864760026</v>
+        <v>0.0739538518312331</v>
       </c>
       <c r="E42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F42" s="0" t="n">
-        <v>0.705827392857545</v>
+        <v>0.525059463386346</v>
       </c>
       <c r="G42" s="0" t="n">
-        <v>0.170695399706126</v>
+        <v>0.289483372209514</v>
       </c>
       <c r="H42" s="0" t="n">
         <v>0</v>
@@ -32741,31 +32741,31 @@
         <v>0</v>
       </c>
       <c r="K42" s="0" t="n">
-        <v>-0.261487678350735</v>
+        <v>0.466743258729607</v>
       </c>
       <c r="L42" s="0" t="n">
-        <v>0.965206814144379</v>
+        <v>0.884392859780351</v>
       </c>
       <c r="M42" s="0" t="n">
-        <v>0.927362761040452</v>
+        <v>1.53076944120777</v>
       </c>
       <c r="N42" s="0" t="n">
-        <v>0.175451620863231</v>
+        <v>0.140488335444504</v>
       </c>
       <c r="O42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P42" s="0" t="n">
-        <v>0.0461542069697976</v>
+        <v>-0.0202110340459245</v>
       </c>
       <c r="Q42" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R42" s="0" t="n">
-        <v>0.256300765380319</v>
+        <v>0.558467727993153</v>
       </c>
       <c r="S42" s="0" t="n">
-        <v>-0.478477408688377</v>
+        <v>0.625819571734652</v>
       </c>
       <c r="T42" s="0" t="n">
         <v>0</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>0.447243801410176</v>
+        <v>0.692814477961559</v>
       </c>
       <c r="X42" s="0" t="n">
-        <v>0.894412087407239</v>
+        <v>0.721115870805</v>
       </c>
       <c r="Y42" s="0" t="n">
         <v>0</v>
@@ -33502,25 +33502,25 @@
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="n">
-        <v>-0.265661277832948</v>
+        <v>1.29911307792078</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>0.144673368046021</v>
+        <v>0.0999058875575586</v>
       </c>
       <c r="C43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D43" s="0" t="n">
-        <v>0.100640434635692</v>
+        <v>0.177334885916597</v>
       </c>
       <c r="E43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F43" s="0" t="n">
-        <v>0.969864723981965</v>
+        <v>0.607292332656311</v>
       </c>
       <c r="G43" s="0" t="n">
-        <v>0.0591322234272617</v>
+        <v>0.469125834002653</v>
       </c>
       <c r="H43" s="0" t="n">
         <v>0</v>
@@ -33532,31 +33532,31 @@
         <v>0</v>
       </c>
       <c r="K43" s="0" t="n">
-        <v>-0.132440373208427</v>
+        <v>0.604833314091409</v>
       </c>
       <c r="L43" s="0" t="n">
-        <v>0.991190974305362</v>
+        <v>0.796352096854904</v>
       </c>
       <c r="M43" s="0" t="n">
-        <v>1.20873755161258</v>
+        <v>1.88587276379329</v>
       </c>
       <c r="N43" s="0" t="n">
-        <v>0.134839752832128</v>
+        <v>0.118480137850878</v>
       </c>
       <c r="O43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P43" s="0" t="n">
-        <v>0.272886025528715</v>
+        <v>-0.276219759553258</v>
       </c>
       <c r="Q43" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R43" s="0" t="n">
-        <v>0.410916373042899</v>
+        <v>0.528839611560804</v>
       </c>
       <c r="S43" s="0" t="n">
-        <v>-0.202423823111186</v>
+        <v>0.845092836169008</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>0</v>
@@ -33568,10 +33568,10 @@
         <v>0</v>
       </c>
       <c r="W43" s="0" t="n">
-        <v>0.568242779760063</v>
+        <v>0.809286459278711</v>
       </c>
       <c r="X43" s="0" t="n">
-        <v>0.822860950131039</v>
+        <v>0.587414186778058</v>
       </c>
       <c r="Y43" s="0" t="n">
         <v>0</v>
@@ -34293,25 +34293,25 @@
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="n">
-        <v>0.205814943007073</v>
+        <v>1.63372614283065</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>-0.000320664964642413</v>
+        <v>0.0999631507685494</v>
       </c>
       <c r="C44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D44" s="0" t="n">
-        <v>0.784211406907979</v>
+        <v>0.0998932957369594</v>
       </c>
       <c r="E44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F44" s="0" t="n">
-        <v>1.21063902954528</v>
+        <v>0.627838149097893</v>
       </c>
       <c r="G44" s="0" t="n">
-        <v>0.0223466608122464</v>
+        <v>0.667546050145825</v>
       </c>
       <c r="H44" s="0" t="n">
         <v>0</v>
@@ -34323,31 +34323,31 @@
         <v>0</v>
       </c>
       <c r="K44" s="0" t="n">
-        <v>0.102725936862276</v>
+        <v>0.729002156678664</v>
       </c>
       <c r="L44" s="0" t="n">
-        <v>0.994709697296537</v>
+        <v>0.68451139914384</v>
       </c>
       <c r="M44" s="0" t="n">
-        <v>1.67974214129064</v>
+        <v>2.23771406425312</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.0165135635312283</v>
+        <v>0.101735741621892</v>
       </c>
       <c r="O44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P44" s="0" t="n">
-        <v>0.781750322555091</v>
+        <v>-0.136636993391287</v>
       </c>
       <c r="Q44" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R44" s="0" t="n">
-        <v>0.47663933451766</v>
+        <v>0.426191904427658</v>
       </c>
       <c r="S44" s="0" t="n">
-        <v>0.0677323841034622</v>
+        <v>1.04321516565855</v>
       </c>
       <c r="T44" s="0" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="W44" s="0" t="n">
-        <v>0.744557058230671</v>
+        <v>0.899601883311267</v>
       </c>
       <c r="X44" s="0" t="n">
-        <v>0.667558826650423</v>
+        <v>0.436710947358572</v>
       </c>
       <c r="Y44" s="0" t="n">
         <v>0</v>
@@ -35084,25 +35084,25 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="n">
-        <v>2.52653380545708</v>
+        <v>1.95191026703207</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>0.136327306811814</v>
+        <v>0.0997175427374103</v>
       </c>
       <c r="C45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D45" s="0" t="n">
-        <v>0.918939346298371</v>
+        <v>0.0549455197403304</v>
       </c>
       <c r="E45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F45" s="0" t="n">
-        <v>1.19131834320801</v>
+        <v>0.582848648366416</v>
       </c>
       <c r="G45" s="0" t="n">
-        <v>0.0694392029237396</v>
+        <v>0.859431379080629</v>
       </c>
       <c r="H45" s="0" t="n">
         <v>0</v>
@@ -35114,31 +35114,31 @@
         <v>0</v>
       </c>
       <c r="K45" s="0" t="n">
-        <v>0.953084333245193</v>
+        <v>0.828237500953912</v>
       </c>
       <c r="L45" s="0" t="n">
-        <v>0.302704895438718</v>
+        <v>0.560377231883683</v>
       </c>
       <c r="M45" s="0" t="n">
-        <v>-2.21579863848774</v>
+        <v>2.5541022918776</v>
       </c>
       <c r="N45" s="0" t="n">
-        <v>0.128901673168657</v>
+        <v>0.120424947533071</v>
       </c>
       <c r="O45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P45" s="0" t="n">
-        <v>1.05279405245409</v>
+        <v>0.00959188637815039</v>
       </c>
       <c r="Q45" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R45" s="0" t="n">
-        <v>0.428157458138214</v>
+        <v>0.270774502465529</v>
       </c>
       <c r="S45" s="0" t="n">
-        <v>0.055977138074039</v>
+        <v>1.18747064230355</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>0</v>
@@ -35150,10 +35150,10 @@
         <v>0</v>
       </c>
       <c r="W45" s="0" t="n">
-        <v>0.894762618180277</v>
+        <v>0.957166214878709</v>
       </c>
       <c r="X45" s="0" t="n">
-        <v>-0.44654211123608</v>
+        <v>0.289539007898356</v>
       </c>
       <c r="Y45" s="0" t="n">
         <v>0</v>
@@ -35875,25 +35875,25 @@
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="n">
-        <v>2.92004302731261</v>
+        <v>2.26241266322276</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>0.136469253282941</v>
+        <v>0.102202174865476</v>
       </c>
       <c r="C46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D46" s="0" t="n">
-        <v>0.0612565250243058</v>
+        <v>0.137399653985697</v>
       </c>
       <c r="E46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F46" s="0" t="n">
-        <v>0.938650044211787</v>
+        <v>0.48100862241012</v>
       </c>
       <c r="G46" s="0" t="n">
-        <v>0.163774364050428</v>
+        <v>1.02919657232146</v>
       </c>
       <c r="H46" s="0" t="n">
         <v>0</v>
@@ -35905,31 +35905,31 @@
         <v>0</v>
       </c>
       <c r="K46" s="0" t="n">
-        <v>0.993870741941886</v>
+        <v>0.904926224401115</v>
       </c>
       <c r="L46" s="0" t="n">
-        <v>0.110548398052098</v>
+        <v>0.4255684767357</v>
       </c>
       <c r="M46" s="0" t="n">
-        <v>-1.7412001399063</v>
+        <v>2.88182437148043</v>
       </c>
       <c r="N46" s="0" t="n">
-        <v>0.158607230974909</v>
+        <v>0.135254950689482</v>
       </c>
       <c r="O46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P46" s="0" t="n">
-        <v>0.170773702953346</v>
+        <v>0.278424565144882</v>
       </c>
       <c r="Q46" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R46" s="0" t="n">
-        <v>0.331295862696556</v>
+        <v>0.0723747607550472</v>
       </c>
       <c r="S46" s="0" t="n">
-        <v>-0.228172047973038</v>
+        <v>1.27377705683817</v>
       </c>
       <c r="T46" s="0" t="n">
         <v>0</v>
@@ -35941,10 +35941,10 @@
         <v>0</v>
       </c>
       <c r="W46" s="0" t="n">
-        <v>-0.764715740426988</v>
+        <v>0.991576906334782</v>
       </c>
       <c r="X46" s="0" t="n">
-        <v>0.644367780342254</v>
+        <v>0.129519260434667</v>
       </c>
       <c r="Y46" s="0" t="n">
         <v>0</v>
@@ -36666,25 +36666,25 @@
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>-3.08288168525855</v>
+        <v>2.60485693882786</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>0.13663079231234</v>
+        <v>0.0998519544008994</v>
       </c>
       <c r="C47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>0.0865918271169238</v>
+        <v>0.0933523072002827</v>
       </c>
       <c r="E47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F47" s="0" t="n">
-        <v>0.666819334928081</v>
+        <v>0.329942799104608</v>
       </c>
       <c r="G47" s="0" t="n">
-        <v>0.185435165461679</v>
+        <v>1.15914522008347</v>
       </c>
       <c r="H47" s="0" t="n">
         <v>0</v>
@@ -36696,31 +36696,31 @@
         <v>0</v>
       </c>
       <c r="K47" s="0" t="n">
-        <v>0.999569158715624</v>
+        <v>0.964204956228948</v>
       </c>
       <c r="L47" s="0" t="n">
-        <v>-0.0293512681930179</v>
+        <v>0.265158070560812</v>
       </c>
       <c r="M47" s="0" t="n">
-        <v>-1.44803429193941</v>
+        <v>-3.06650126876632</v>
       </c>
       <c r="N47" s="0" t="n">
-        <v>0.156861068024486</v>
+        <v>0.0871053076890738</v>
       </c>
       <c r="O47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P47" s="0" t="n">
-        <v>0.0926301381564911</v>
+        <v>0.17925415159031</v>
       </c>
       <c r="Q47" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R47" s="0" t="n">
-        <v>0.322720103414583</v>
+        <v>-0.14303612376649</v>
       </c>
       <c r="S47" s="0" t="n">
-        <v>-0.524612982982556</v>
+        <v>1.29606206312344</v>
       </c>
       <c r="T47" s="0" t="n">
         <v>0</v>
@@ -36732,10 +36732,10 @@
         <v>0</v>
       </c>
       <c r="W47" s="0" t="n">
-        <v>-0.662399456813168</v>
+        <v>0.99929524328656</v>
       </c>
       <c r="X47" s="0" t="n">
-        <v>0.749150825677727</v>
+        <v>-0.0375368718043295</v>
       </c>
       <c r="Y47" s="0" t="n">
         <v>0</v>
@@ -37457,25 +37457,25 @@
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
-        <v>-2.81551466360248</v>
+        <v>2.90440120586287</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>0.136745738296978</v>
+        <v>0.0988940748842267</v>
       </c>
       <c r="C48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D48" s="0" t="n">
-        <v>0.150998123267475</v>
+        <v>0.12076561544949</v>
       </c>
       <c r="E48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F48" s="0" t="n">
-        <v>0.401654140637571</v>
+        <v>0.147607313071077</v>
       </c>
       <c r="G48" s="0" t="n">
-        <v>0.134553938897115</v>
+        <v>1.23450557218138</v>
       </c>
       <c r="H48" s="0" t="n">
         <v>0</v>
@@ -37487,31 +37487,31 @@
         <v>0</v>
       </c>
       <c r="K48" s="0" t="n">
-        <v>0.986738558127956</v>
+        <v>0.992975765889644</v>
       </c>
       <c r="L48" s="0" t="n">
-        <v>-0.162317645077675</v>
+        <v>0.118317912235954</v>
       </c>
       <c r="M48" s="0" t="n">
-        <v>-1.19409032445478</v>
+        <v>-2.73244261513874</v>
       </c>
       <c r="N48" s="0" t="n">
-        <v>0.161414737516945</v>
+        <v>0.142420918773466</v>
       </c>
       <c r="O48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P48" s="0" t="n">
-        <v>0.0608246191830668</v>
+        <v>0.191431162002349</v>
       </c>
       <c r="Q48" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R48" s="0" t="n">
-        <v>0.394322594445643</v>
+        <v>-0.349857006488831</v>
       </c>
       <c r="S48" s="0" t="n">
-        <v>-0.815118383391428</v>
+        <v>1.24716300309376</v>
       </c>
       <c r="T48" s="0" t="n">
         <v>0</v>
@@ -37523,10 +37523,10 @@
         <v>0</v>
       </c>
       <c r="W48" s="0" t="n">
-        <v>-0.562201279130177</v>
+        <v>0.979147408232731</v>
       </c>
       <c r="X48" s="0" t="n">
-        <v>0.827000436362879</v>
+        <v>-0.203151059438847</v>
       </c>
       <c r="Y48" s="0" t="n">
         <v>0</v>
@@ -38248,25 +38248,25 @@
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>-2.55866642960922</v>
+        <v>-3.085971482056</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>0.139612542468577</v>
+        <v>0.102042487216164</v>
       </c>
       <c r="C49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>0.110231750378684</v>
+        <v>0.139878936700561</v>
       </c>
       <c r="E49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F49" s="0" t="n">
-        <v>0.156224068689367</v>
+        <v>-0.0492727715826321</v>
       </c>
       <c r="G49" s="0" t="n">
-        <v>0.014865429437314</v>
+        <v>1.25149200935118</v>
       </c>
       <c r="H49" s="0" t="n">
         <v>0</v>
@@ -38278,31 +38278,31 @@
         <v>0</v>
       </c>
       <c r="K49" s="0" t="n">
-        <v>0.957824469878202</v>
+        <v>0.999613310583672</v>
       </c>
       <c r="L49" s="0" t="n">
-        <v>-0.287353936640064</v>
+        <v>-0.0278070009880865</v>
       </c>
       <c r="M49" s="0" t="n">
-        <v>-0.922227447777115</v>
+        <v>-2.43149331392842</v>
       </c>
       <c r="N49" s="0" t="n">
-        <v>0.144321581835322</v>
+        <v>0.101545700660047</v>
       </c>
       <c r="O49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P49" s="0" t="n">
-        <v>0.0461342726026447</v>
+        <v>-0.102814210304249</v>
       </c>
       <c r="Q49" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R49" s="0" t="n">
-        <v>0.538785631710644</v>
+        <v>-0.531800827786819</v>
       </c>
       <c r="S49" s="0" t="n">
-        <v>-1.07837813509752</v>
+        <v>1.13610831711643</v>
       </c>
       <c r="T49" s="0" t="n">
         <v>0</v>
@@ -38314,10 +38314,10 @@
         <v>0</v>
       </c>
       <c r="W49" s="0" t="n">
-        <v>-0.44494578649876</v>
+        <v>0.937629222908137</v>
       </c>
       <c r="X49" s="0" t="n">
-        <v>0.895557506292588</v>
+        <v>-0.347636937549339</v>
       </c>
       <c r="Y49" s="0" t="n">
         <v>0</v>
@@ -39039,25 +39039,25 @@
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>-2.28752310008795</v>
+        <v>-2.73278306327449</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>0.136455084392301</v>
+        <v>0.0994085140420331</v>
       </c>
       <c r="C50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>0.106434873298906</v>
+        <v>0.298857910001797</v>
       </c>
       <c r="E50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F50" s="0" t="n">
-        <v>-0.0473397597625066</v>
+        <v>-0.241421695120325</v>
       </c>
       <c r="G50" s="0" t="n">
-        <v>-0.1662684449552</v>
+        <v>1.20934585673142</v>
       </c>
       <c r="H50" s="0" t="n">
         <v>0</v>
@@ -39069,31 +39069,31 @@
         <v>0</v>
       </c>
       <c r="K50" s="0" t="n">
-        <v>0.910197866798696</v>
+        <v>0.979181975246292</v>
       </c>
       <c r="L50" s="0" t="n">
-        <v>-0.41417368732828</v>
+        <v>-0.202984382041499</v>
       </c>
       <c r="M50" s="0" t="n">
-        <v>-0.632172748868069</v>
+        <v>-2.06247878683339</v>
       </c>
       <c r="N50" s="0" t="n">
-        <v>0.132664360566153</v>
+        <v>0.0904990496492454</v>
       </c>
       <c r="O50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P50" s="0" t="n">
-        <v>0.367735323958932</v>
+        <v>0.15504556291505</v>
       </c>
       <c r="Q50" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R50" s="0" t="n">
-        <v>0.757653445254832</v>
+        <v>-0.672655440415087</v>
       </c>
       <c r="S50" s="0" t="n">
-        <v>-1.29027639415702</v>
+        <v>0.972147097886739</v>
       </c>
       <c r="T50" s="0" t="n">
         <v>0</v>
@@ -39105,10 +39105,10 @@
         <v>0</v>
       </c>
       <c r="W50" s="0" t="n">
-        <v>-0.310849209078311</v>
+        <v>-0.857936393665787</v>
       </c>
       <c r="X50" s="0" t="n">
-        <v>0.950459241217312</v>
+        <v>0.513755919113098</v>
       </c>
       <c r="Y50" s="0" t="n">
         <v>0</v>
@@ -39830,25 +39830,25 @@
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>-0.5299900044386</v>
+        <v>-2.42234536846387</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>0.00772063439407962</v>
+        <v>0.0996677569792475</v>
       </c>
       <c r="C51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>1.36203631818561</v>
+        <v>0.163706277702294</v>
       </c>
       <c r="E51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="F51" s="0" t="n">
-        <v>-0.0519129503482443</v>
+        <v>-0.41077064357761</v>
       </c>
       <c r="G51" s="0" t="n">
-        <v>-0.238546011873592</v>
+        <v>1.10365903260762</v>
       </c>
       <c r="H51" s="0" t="n">
         <v>0</v>
@@ -39860,31 +39860,31 @@
         <v>0</v>
       </c>
       <c r="K51" s="0" t="n">
-        <v>-0.261904444825579</v>
+        <v>0.936029338419861</v>
       </c>
       <c r="L51" s="0" t="n">
-        <v>0.965093809834363</v>
+        <v>-0.351921976604584</v>
       </c>
       <c r="M51" s="0" t="n">
-        <v>1.14120194687055</v>
+        <v>-1.7364340630743</v>
       </c>
       <c r="N51" s="0" t="n">
-        <v>0.0103096889341639</v>
+        <v>0.0841876614210093</v>
       </c>
       <c r="O51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="P51" s="0" t="n">
-        <v>1.93537738105055</v>
+        <v>0.140290509133662</v>
       </c>
       <c r="Q51" s="0" t="n">
         <v>0</v>
       </c>
       <c r="R51" s="0" t="n">
-        <v>0.858187566115347</v>
+        <v>-0.750539069557955</v>
       </c>
       <c r="S51" s="0" t="n">
-        <v>-1.28414654642343</v>
+        <v>0.764347653331887</v>
       </c>
       <c r="T51" s="0" t="n">
         <v>0</v>
@@ -39896,10 +39896,10 @@
         <v>0</v>
       </c>
       <c r="W51" s="0" t="n">
-        <v>0.540137911375518</v>
+        <v>-0.763178017345358</v>
       </c>
       <c r="X51" s="0" t="n">
-        <v>0.841576518621387</v>
+        <v>0.646188295963962</v>
       </c>
       <c r="Y51" s="0" t="n">
         <v>0</v>
